--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vscocorp-my.sharepoint.com/personal/lsachdeva_victoria_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{3B4AFE58-FAB7-7D46-8402-9AFF42757B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A33F9F3-07AC-B04E-9925-9C523143B9D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7515E64F-9E6E-7649-9D64-660BDE11BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1540" windowWidth="27300" windowHeight="17440" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
+    <workbookView xWindow="2580" yWindow="1300" windowWidth="27300" windowHeight="17440" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Pattern 19: Graph DFS - Connected Components / Island Counting</t>
-  </si>
-  <si>
-    <t>130. Surrounded Regions, 200. Number of Islands, 417. Pacific Atlantic Water Flow, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
   </si>
   <si>
     <t>Pattern 20: Graph BFS - Connected Components / Island Counting</t>
@@ -812,6 +809,26 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List, 25. Reverse Nodes in k-Group, 234. Palindrome Linked List, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 200. Number of Islands, 417. Pacific Atlantic Water Flow, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
     </r>
   </si>
 </sst>
@@ -1227,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="222" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="222" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1270,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1315,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1360,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1403,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1564,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1576,10 +1593,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1591,10 +1608,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1606,10 +1623,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1621,10 +1638,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1636,10 +1653,10 @@
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1651,10 +1668,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1666,10 +1683,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1681,7 +1698,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -1697,10 +1714,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1712,10 +1729,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1727,10 +1744,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1742,10 +1759,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1757,10 +1774,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1772,10 +1789,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1787,10 +1804,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1802,10 +1819,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1817,10 +1834,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1832,10 +1849,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1847,10 +1864,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1862,7 +1879,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -1875,10 +1892,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1890,10 +1907,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1905,10 +1922,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1920,10 +1937,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1935,7 +1952,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -1948,10 +1965,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1963,10 +1980,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1978,10 +1995,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1993,10 +2010,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2008,10 +2025,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2023,10 +2040,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2038,10 +2055,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2053,7 +2070,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2066,10 +2083,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2081,10 +2098,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2096,10 +2113,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2111,10 +2128,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2126,10 +2143,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2141,7 +2158,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2154,10 +2171,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2169,10 +2186,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2184,10 +2201,10 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2199,10 +2216,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2214,10 +2231,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2229,7 +2246,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2242,10 +2259,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2257,10 +2274,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2272,10 +2289,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2287,10 +2304,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2302,10 +2319,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2317,10 +2334,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2332,7 +2349,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2345,10 +2362,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2360,10 +2377,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2375,10 +2392,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2390,10 +2407,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2405,7 +2422,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2418,10 +2435,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2433,10 +2450,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2448,10 +2465,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2463,10 +2480,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2478,10 +2495,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2493,7 +2510,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2506,10 +2523,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2521,10 +2538,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2536,10 +2553,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2551,10 +2568,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2566,10 +2583,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2581,10 +2598,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2596,10 +2613,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2611,10 +2628,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2626,7 +2643,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2639,10 +2656,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2654,10 +2671,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2669,10 +2686,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2684,10 +2701,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2699,10 +2716,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2714,10 +2731,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2729,10 +2746,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2744,7 +2761,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -2757,10 +2774,10 @@
     </row>
     <row r="104" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7515E64F-9E6E-7649-9D64-660BDE11BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4844C-8E22-EC44-867A-1DCFDF4E7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1300" windowWidth="27300" windowHeight="17440" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,6 @@
     <t>Pattern 57: Binary Search - On Answer / Condition Function</t>
   </si>
   <si>
-    <t>410. Split Array Largest Sum, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
-  </si>
-  <si>
     <t>Pattern 58: Binary Search - Find First/Last Occurrence</t>
   </si>
   <si>
@@ -594,7 +591,241 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>253. Meeting Rooms II, 767. Reorganize String</t>
+      <t>1. Two Sum, 11. Container With Most Water, 15. 3Sum, 16. 3Sum Closest, 18. 4Sum, 167. Two Sum II - Input Array Is Sorted,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 349. Intersection of Two Arrays, 881. Boats to Save People, 977. Squares of a Sorted Array, 259. 3Sum Smaller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">62. Unique Paths, 63. Unique Paths II, 64. Minimum Path Sum, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120. Triangle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 221. Maximal Square, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>151. Reverse Words in a String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 443. String Compression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>215. Kth Largest Element in an Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>506. Relative Ranks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1046. Last Stone Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2558. Take Gifts From the Richest Pile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20. Valid Parentheses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List, 25. Reverse Nodes in k-Group, 234. Palindrome Linked List, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>253. Meeting Rooms II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 767. Reorganize String</t>
     </r>
     <r>
       <rPr>
@@ -614,7 +845,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1. Two Sum, 11. Container With Most Water, 15. 3Sum, 16. 3Sum Closest, 18. 4Sum, 167. Two Sum II - Input Array Is Sorted,</t>
+      <t>130. Surrounded Regions</t>
     </r>
     <r>
       <rPr>
@@ -623,21 +854,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 349. Intersection of Two Arrays, 881. Boats to Save People, 977. Squares of a Sorted Array, 259. 3Sum Smaller</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">62. Unique Paths, 63. Unique Paths II, 64. Minimum Path Sum, </t>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
+        <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>120. Triangle</t>
+      <t>417. Pacific Atlantic Water Flow</t>
     </r>
     <r>
       <rPr>
@@ -646,189 +872,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 221. Maximal Square, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>151. Reverse Words in a String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 443. String Compression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>215. Kth Largest Element in an Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>506. Relative Ranks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1046. Last Stone Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2558. Take Gifts From the Richest Pile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20. Valid Parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List, 25. Reverse Nodes in k-Group, 234. Palindrome Linked List, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 200. Number of Islands, 417. Pacific Atlantic Water Flow, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+      <t>, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
     </r>
   </si>
 </sst>
@@ -836,7 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -867,6 +911,18 @@
     <font>
       <sz val="10"/>
       <color theme="6" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1244,14 +1300,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="173.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="143.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1287,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1332,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1377,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1420,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1822,7 +1878,7 @@
         <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1895,7 +1951,7 @@
         <v>74</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1940,7 +1996,7 @@
         <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2204,7 +2260,7 @@
         <v>111</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2216,10 +2272,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2231,10 +2287,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2246,7 +2302,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2259,10 +2315,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2274,10 +2330,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2289,10 +2345,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2304,10 +2360,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2319,10 +2375,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2334,10 +2390,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2349,7 +2405,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2362,10 +2418,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2377,10 +2433,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2392,10 +2448,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2407,10 +2463,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2422,7 +2478,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2435,10 +2491,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2450,10 +2506,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2465,10 +2521,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2480,10 +2536,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2495,10 +2551,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2510,7 +2566,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2523,10 +2579,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2538,10 +2594,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2553,10 +2609,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2568,10 +2624,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2583,10 +2639,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2598,10 +2654,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2613,10 +2669,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2628,10 +2684,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2643,7 +2699,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2656,10 +2712,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2671,10 +2727,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2686,10 +2742,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2701,10 +2757,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2716,10 +2772,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2731,10 +2787,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2746,10 +2802,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2761,7 +2817,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -2774,10 +2830,10 @@
     </row>
     <row r="104" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4844C-8E22-EC44-867A-1DCFDF4E7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF39DD1-FE92-B34E-80AA-410FA4B6D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>Pattern 24: Graph - Shortest Path (Dijkstra's Algorithm)</t>
   </si>
   <si>
-    <t>743. Network Delay Time, 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
-  </si>
-  <si>
     <t>Pattern 25: Graph - Shortest Path (Bellman-Ford / BFS+K)</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>Pattern 32: DP - 2D Array (Longest Common Subsequence - LCS)</t>
   </si>
   <si>
-    <t>583. Delete Operation for Two Strings, 1143. Longest Common Subsequence</t>
-  </si>
-  <si>
     <t>Pattern 33: DP - 2D Array (Edit Distance / Levenshtein Distance)</t>
   </si>
   <si>
@@ -792,11 +786,106 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>253. Meeting Rooms II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 767. Reorganize String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1143. Longest Common Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFFFC000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>410. Split Array Largest Sum</t>
+      <t>743. Network Delay Time,</t>
     </r>
     <r>
       <rPr>
@@ -805,74 +894,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>253. Meeting Rooms II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 767. Reorganize String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
     </r>
   </si>
 </sst>
@@ -947,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,6 +984,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1388,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1433,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1476,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1637,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1707,12 +1732,12 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1724,10 +1749,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1739,10 +1764,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1754,7 +1779,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -1770,10 +1795,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1785,10 +1810,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1800,10 +1825,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1815,10 +1840,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1830,10 +1855,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1845,10 +1870,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1860,10 +1885,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1875,10 +1900,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1890,10 +1915,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1905,10 +1930,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1920,10 +1945,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1935,7 +1960,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -1948,10 +1973,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1963,10 +1988,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1978,10 +2003,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1993,10 +2018,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2008,7 +2033,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -2021,10 +2046,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2036,10 +2061,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2051,10 +2076,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2066,10 +2091,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2081,10 +2106,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2096,10 +2121,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2111,10 +2136,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2126,7 +2151,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2139,10 +2164,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2154,10 +2179,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2169,10 +2194,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2184,10 +2209,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2199,10 +2224,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2214,7 +2239,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2227,10 +2252,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2242,10 +2267,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2255,12 +2280,12 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2272,10 +2297,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2287,10 +2312,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2302,7 +2327,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2315,10 +2340,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2330,10 +2355,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2345,10 +2370,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2360,10 +2385,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2375,10 +2400,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2390,10 +2415,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2405,7 +2430,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2418,10 +2443,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2433,10 +2458,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2448,10 +2473,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2463,10 +2488,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2478,7 +2503,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2491,10 +2516,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2506,10 +2531,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2521,10 +2546,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2536,10 +2561,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2551,10 +2576,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2566,7 +2591,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2579,10 +2604,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2594,10 +2619,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2609,10 +2634,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2624,10 +2649,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2639,10 +2664,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2654,10 +2679,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2669,10 +2694,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2684,10 +2709,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2699,7 +2724,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2712,10 +2737,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2727,10 +2752,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2742,10 +2767,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2757,10 +2782,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2772,10 +2797,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2787,10 +2812,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2802,10 +2827,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2817,7 +2842,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -2828,12 +2853,12 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF39DD1-FE92-B34E-80AA-410FA4B6D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76836EF7-61A1-CA47-9CFC-1A7A5994C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Pattern 12: Tree BFS - Level Order Traversal</t>
   </si>
   <si>
-    <t>102. Binary Tree Level Order Traversal, 103. Binary Tree Zigzag Level Order Traversal, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-  </si>
-  <si>
     <t>Pattern 13: Tree DFS - Recursive Preorder Traversal</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Pattern 26: Graph - Union-Find (Disjoint Set Union - DSU)</t>
   </si>
   <si>
-    <t>200. Number of Islands, 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
-  </si>
-  <si>
     <t>V. Dynamic Programming (DP) Patterns</t>
   </si>
   <si>
@@ -881,11 +875,20 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>743. Network Delay Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFFFC000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>743. Network Delay Time,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -895,6 +898,46 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200. Number of Islands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 103. Binary Tree Zigzag Level Order Traversal, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
     </r>
   </si>
 </sst>
@@ -1325,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1413,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1458,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1496,12 +1539,12 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1554,12 +1597,12 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1571,10 +1614,10 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1586,10 +1629,10 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1601,10 +1644,10 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1616,10 +1659,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1631,10 +1674,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1646,7 +1689,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -1659,10 +1702,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1674,10 +1717,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1689,10 +1732,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1704,10 +1747,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1719,10 +1762,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1734,10 +1777,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1749,10 +1792,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1764,10 +1807,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1779,7 +1822,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -1795,10 +1838,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1810,10 +1853,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1825,10 +1868,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1840,10 +1883,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1855,10 +1898,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1870,10 +1913,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1885,10 +1928,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1900,10 +1943,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1915,10 +1958,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1930,10 +1973,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1945,10 +1988,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1960,7 +2003,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -1973,10 +2016,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1988,10 +2031,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2003,10 +2046,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2018,10 +2061,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2033,7 +2076,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -2046,10 +2089,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2061,10 +2104,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2076,10 +2119,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2091,10 +2134,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2106,10 +2149,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2121,10 +2164,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2136,10 +2179,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2151,7 +2194,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2164,10 +2207,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2179,10 +2222,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2194,10 +2237,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2209,10 +2252,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2224,10 +2267,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2239,7 +2282,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2252,10 +2295,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2265,12 +2308,12 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2282,10 +2325,10 @@
     </row>
     <row r="65" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2297,10 +2340,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2312,10 +2355,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2327,7 +2370,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2340,10 +2383,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2355,10 +2398,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2370,10 +2413,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2385,10 +2428,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2400,10 +2443,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2415,10 +2458,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2430,7 +2473,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2443,10 +2486,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2458,10 +2501,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2473,10 +2516,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2488,10 +2531,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2503,7 +2546,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2514,12 +2557,12 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2531,10 +2574,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2546,10 +2589,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2561,10 +2604,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2576,10 +2619,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2591,7 +2634,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2604,10 +2647,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2619,10 +2662,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2634,10 +2677,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2649,10 +2692,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2664,10 +2707,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2679,10 +2722,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2694,10 +2737,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2709,10 +2752,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2724,7 +2767,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2737,10 +2780,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2752,10 +2795,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2767,10 +2810,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2782,10 +2825,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2797,10 +2840,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2812,10 +2855,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2827,10 +2870,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2842,7 +2885,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -2855,10 +2898,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76836EF7-61A1-CA47-9CFC-1A7A5994C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CB6DDA-988A-D84D-BE40-C9973E66D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
+    <workbookView minimized="1" xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2649,7 +2649,7 @@
       <c r="A87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C87" s="2"/>
@@ -2872,7 +2872,7 @@
       <c r="A102" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C102" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CB6DDA-988A-D84D-BE40-C9973E66D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1254F4D-2785-C742-9C98-8A37E2429BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Pattern 15: Tree DFS - Recursive Postorder Traversal</t>
   </si>
   <si>
-    <t>104. Maximum Depth of Binary Tree, 110. Balanced Binary Tree, 124. Binary Tree Maximum Path Sum, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, 543. Diameter of Binary Tree, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
-  </si>
-  <si>
     <t>Pattern 17: Tree - Lowest Common Ancestor (LCA) Finding</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Pattern 22: Graph BFS - Topological Sort (Kahn's Algorithm)</t>
   </si>
   <si>
-    <t>207. Course Schedule, 210. Course Schedule II, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
-  </si>
-  <si>
     <t>Pattern 23: Graph - Deep Copy / Cloning</t>
   </si>
   <si>
@@ -254,15 +248,9 @@
     <t>Pattern 39: Heap - Two Heaps for Median Finding</t>
   </si>
   <si>
-    <t>295. Find Median from Data Stream, 1825. Finding MK Average</t>
-  </si>
-  <si>
     <t>Pattern 40: Heap - K-way Merge</t>
   </si>
   <si>
-    <t>23. Merge k Sorted Lists, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, 632. Smallest Range Covering Elements from K Lists</t>
-  </si>
-  <si>
     <t>Pattern 41: Heap - Scheduling / Minimum Cost (Greedy with Priority Queue)</t>
   </si>
   <si>
@@ -302,274 +290,726 @@
     <t>Pattern 47: Backtracking - N-Queens / Constraint Satisfaction</t>
   </si>
   <si>
+    <t>Pattern 48: Backtracking - Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>VIII. Greedy Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 49: Greedy - Interval Merging/Scheduling</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
+  </si>
+  <si>
+    <t>Pattern 51: Greedy - Jump Game Reachability/Minimization</t>
+  </si>
+  <si>
+    <t>45. Jump Game II, 55. Jump Game</t>
+  </si>
+  <si>
+    <t>Pattern 52: Greedy - Buy/Sell Stock</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock, 122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Pattern 53: Greedy - Gas Station Circuit</t>
+  </si>
+  <si>
+    <t>134. Gas Station</t>
+  </si>
+  <si>
+    <t>Pattern 54: Greedy - Task Scheduling (Frequency Based)</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>IX. Binary Search Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 55: Binary Search - On Sorted Array/List</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position, 69. Sqrt(x), 74. Search a 2D Matrix, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>Pattern 56: Binary Search - Find Min/Max in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array, 81. Search in Rotated Sorted Array II, 153. Find Minimum in Rotated Sorted Array, 5 162. Find Peak Element, 852. Peak Index in a Mountain Array, 1095. Find in Mountain Array</t>
+  </si>
+  <si>
+    <t>Pattern 57: Binary Search - On Answer / Condition Function</t>
+  </si>
+  <si>
+    <t>Pattern 58: Binary Search - Find First/Last Occurrence</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array, 658. Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Pattern 59: Binary Search - Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>4. Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>X. Stack Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 60: Stack - Valid Parentheses Matching</t>
+  </si>
+  <si>
+    <t>Pattern 61: Stack - Monotonic Stack</t>
+  </si>
+  <si>
+    <t>402. Remove K Digits, 496. Next Greater Element I, 503. Next Greater Element II, 739. Daily Temperatures, 901. Online Stock Span, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
+  </si>
+  <si>
+    <t>Pattern 62: Stack - Expression Evaluation (RPN/Infix)</t>
+  </si>
+  <si>
+    <t>150. Evaluate Reverse Polish Notation, 224. Basic Calculator, 227. Basic Calculator II, 772. Basic Calculator III</t>
+  </si>
+  <si>
+    <t>Pattern 63: Stack - Simulation / Backtracking Helper</t>
+  </si>
+  <si>
+    <t>71. Simplify Path, 394. Decode String, 735. Asteroid Collision</t>
+  </si>
+  <si>
+    <t>Pattern 64: Stack - Min Stack Design</t>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>Pattern 65: Stack - Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>XI. Bit Manipulation Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 66: Bitwise XOR - Finding Single/Missing Number</t>
+  </si>
+  <si>
+    <t>136. Single Number, 137. Single Number II, 268. Missing Number, 389. Find the Difference</t>
+  </si>
+  <si>
+    <t>Pattern 67: Bitwise AND - Counting Set Bits (Hamming Weight)</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Pattern 70: Bitwise DP - Counting Bits Optimization</t>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>Pattern 69: Bitwise Operations - Power of Two/Four Check</t>
+  </si>
+  <si>
+    <t>231. Power of Two, 342. Power of Four</t>
+  </si>
+  <si>
+    <t>XII. Linked List Manipulation Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 71: Linked List - In-place Reversal</t>
+  </si>
+  <si>
+    <t>Pattern 72: Linked List - Merging Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Pattern 73: Linked List - Addition of Numbers</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers, 369. Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Pattern 74: Linked List - Intersection Detection</t>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Pattern 75: Linked List - Reordering / Partitioning</t>
+  </si>
+  <si>
+    <t>24. Swap Nodes in Pairs, 61. Rotate List, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>XIII. Array/Matrix Manipulation Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 76: Array/Matrix - In-place Rotation</t>
+  </si>
+  <si>
+    <t>48. Rotate Image, 189. Rotate Array</t>
+  </si>
+  <si>
+    <t>Pattern 77: Array/Matrix - Spiral Traversal</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix, 885. Spiral Matrix III, 2326. Spiral Matrix IV</t>
+  </si>
+  <si>
+    <t>Pattern 78: Array/Matrix - Set Matrix Zeroes (In-place Marking)</t>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Pattern 79: Array - Product Except Self (Prefix/Suffix Products)</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Pattern 80: Array - Plus One (Handling Carry)</t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>Pattern 81: Array - Merge Sorted Array (In-place from End)</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Pattern 82: Array - Cyclic Sort</t>
+  </si>
+  <si>
+    <t>41. First Missing Positive, 268. Missing Number, 287. Find the Duplicate Number, 442. Find All Duplicates in an Array, 448. Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Pattern 83: Array - Kadane's Variant for Maximum Product</t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>XIV. String Manipulation Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 84: String - Palindrome Check (Two Pointers / Reverse)</t>
+  </si>
+  <si>
+    <t>9. Palindrome Number, 125. Valid Palindrome, 680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>Pattern 85: String - Anagram Check (Frequency Count/Sort)</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams, 242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>Pattern 86: String - Roman to Integer Conversion</t>
+  </si>
+  <si>
+    <t>13. Roman to Integer</t>
+  </si>
+  <si>
+    <t>Pattern 87: String - String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>8. String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Pattern 88: String - Multiply Strings (Manual Simulation)</t>
+  </si>
+  <si>
+    <t>43. Multiply Strings</t>
+  </si>
+  <si>
+    <t>Pattern 89: String Matching - Naive / KMP / Rabin-Karp</t>
+  </si>
+  <si>
+    <t>28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, 686. Repeated String Match, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+  </si>
+  <si>
+    <t>Pattern 90: String - Repeated Substring Pattern Detection</t>
+  </si>
+  <si>
+    <t>459. Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>XV. Design Patterns</t>
+  </si>
+  <si>
+    <t>Pattern 91: Design (General/Specific)</t>
+  </si>
+  <si>
+    <t>146. LRU Cache, 155. Min Stack, 208. Implement Trie (Prefix Tree), 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues, 232. Implement Queue using Stacks, 251. Flatten 2D Vector, 271. Encode and Decode Strings, 295. Find Median from Data Stream, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure, 460. LFU Cache, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Two Sum, 11. Container With Most Water, 15. 3Sum, 16. 3Sum Closest, 18. 4Sum, 167. Two Sum II - Input Array Is Sorted,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 349. Intersection of Two Arrays, 881. Boats to Save People, 977. Squares of a Sorted Array, 259. 3Sum Smaller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">62. Unique Paths, 63. Unique Paths II, 64. Minimum Path Sum, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120. Triangle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 221. Maximal Square, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>151. Reverse Words in a String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 443. String Compression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>215. Kth Largest Element in an Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>506. Relative Ranks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1046. Last Stone Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2558. Take Gifts From the Richest Pile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20. Valid Parentheses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>253. Meeting Rooms II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 767. Reorganize String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1143. Longest Common Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>743. Network Delay Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200. Number of Islands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 103. Binary Tree Zigzag Level Order Traversal, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>207. Course Schedule, 210. Course Schedule II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23. Merge k Sorted Lists, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>632. Smallest Range Covering Elements from K Lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1825. Finding MK Average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">104. Maximum Depth of Binary Tree, 110. Balanced Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, 543. Diameter of Binary Tree, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
     <t>37. Sudoku Solver, 51. N-Queens</t>
   </si>
   <si>
-    <t>Pattern 48: Backtracking - Palindrome Partitioning</t>
-  </si>
-  <si>
-    <t>131. Palindrome Partitioning</t>
-  </si>
-  <si>
-    <t>VIII. Greedy Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 49: Greedy - Interval Merging/Scheduling</t>
-  </si>
-  <si>
-    <t>56. Merge Intervals, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
-  </si>
-  <si>
-    <t>Pattern 51: Greedy - Jump Game Reachability/Minimization</t>
-  </si>
-  <si>
-    <t>45. Jump Game II, 55. Jump Game</t>
-  </si>
-  <si>
-    <t>Pattern 52: Greedy - Buy/Sell Stock</t>
-  </si>
-  <si>
-    <t>121. Best Time to Buy and Sell Stock, 122. Best Time to Buy and Sell Stock II</t>
-  </si>
-  <si>
-    <t>Pattern 53: Greedy - Gas Station Circuit</t>
-  </si>
-  <si>
-    <t>134. Gas Station</t>
-  </si>
-  <si>
-    <t>Pattern 54: Greedy - Task Scheduling (Frequency Based)</t>
-  </si>
-  <si>
-    <t>621. Task Scheduler</t>
-  </si>
-  <si>
-    <t>IX. Binary Search Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 55: Binary Search - On Sorted Array/List</t>
-  </si>
-  <si>
-    <t>35. Search Insert Position, 69. Sqrt(x), 74. Search a 2D Matrix, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-  </si>
-  <si>
-    <t>Pattern 56: Binary Search - Find Min/Max in Rotated Sorted Array</t>
-  </si>
-  <si>
-    <t>33. Search in Rotated Sorted Array, 81. Search in Rotated Sorted Array II, 153. Find Minimum in Rotated Sorted Array, 5 162. Find Peak Element, 852. Peak Index in a Mountain Array, 1095. Find in Mountain Array</t>
-  </si>
-  <si>
-    <t>Pattern 57: Binary Search - On Answer / Condition Function</t>
-  </si>
-  <si>
-    <t>Pattern 58: Binary Search - Find First/Last Occurrence</t>
-  </si>
-  <si>
-    <t>34. Find First and Last Position of Element in Sorted Array, 658. Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Pattern 59: Binary Search - Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>4. Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>X. Stack Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 60: Stack - Valid Parentheses Matching</t>
-  </si>
-  <si>
-    <t>Pattern 61: Stack - Monotonic Stack</t>
-  </si>
-  <si>
-    <t>402. Remove K Digits, 496. Next Greater Element I, 503. Next Greater Element II, 739. Daily Temperatures, 901. Online Stock Span, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
-  </si>
-  <si>
-    <t>Pattern 62: Stack - Expression Evaluation (RPN/Infix)</t>
-  </si>
-  <si>
-    <t>150. Evaluate Reverse Polish Notation, 224. Basic Calculator, 227. Basic Calculator II, 772. Basic Calculator III</t>
-  </si>
-  <si>
-    <t>Pattern 63: Stack - Simulation / Backtracking Helper</t>
-  </si>
-  <si>
-    <t>71. Simplify Path, 394. Decode String, 735. Asteroid Collision</t>
-  </si>
-  <si>
-    <t>Pattern 64: Stack - Min Stack Design</t>
-  </si>
-  <si>
-    <t>155. Min Stack</t>
-  </si>
-  <si>
-    <t>Pattern 65: Stack - Largest Rectangle in Histogram</t>
-  </si>
-  <si>
-    <t>84. Largest Rectangle in Histogram, 85. Maximal Rectangle</t>
-  </si>
-  <si>
-    <t>XI. Bit Manipulation Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 66: Bitwise XOR - Finding Single/Missing Number</t>
-  </si>
-  <si>
-    <t>136. Single Number, 137. Single Number II, 268. Missing Number, 389. Find the Difference</t>
-  </si>
-  <si>
-    <t>Pattern 67: Bitwise AND - Counting Set Bits (Hamming Weight)</t>
-  </si>
-  <si>
-    <t>191. Number of 1 Bits</t>
-  </si>
-  <si>
-    <t>Pattern 70: Bitwise DP - Counting Bits Optimization</t>
-  </si>
-  <si>
-    <t>338. Counting Bits</t>
-  </si>
-  <si>
-    <t>Pattern 69: Bitwise Operations - Power of Two/Four Check</t>
-  </si>
-  <si>
-    <t>231. Power of Two, 342. Power of Four</t>
-  </si>
-  <si>
-    <t>XII. Linked List Manipulation Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 71: Linked List - In-place Reversal</t>
-  </si>
-  <si>
-    <t>Pattern 72: Linked List - Merging Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>21. Merge Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>Pattern 73: Linked List - Addition of Numbers</t>
-  </si>
-  <si>
-    <t>2. Add Two Numbers, 369. Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Pattern 74: Linked List - Intersection Detection</t>
-  </si>
-  <si>
-    <t>160. Intersection of Two Linked Lists</t>
-  </si>
-  <si>
-    <t>Pattern 75: Linked List - Reordering / Partitioning</t>
-  </si>
-  <si>
-    <t>24. Swap Nodes in Pairs, 61. Rotate List, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
-  </si>
-  <si>
-    <t>XIII. Array/Matrix Manipulation Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 76: Array/Matrix - In-place Rotation</t>
-  </si>
-  <si>
-    <t>48. Rotate Image, 189. Rotate Array</t>
-  </si>
-  <si>
-    <t>Pattern 77: Array/Matrix - Spiral Traversal</t>
-  </si>
-  <si>
-    <t>54. Spiral Matrix, 885. Spiral Matrix III, 2326. Spiral Matrix IV</t>
-  </si>
-  <si>
-    <t>Pattern 78: Array/Matrix - Set Matrix Zeroes (In-place Marking)</t>
-  </si>
-  <si>
-    <t>73. Set Matrix Zeroes</t>
-  </si>
-  <si>
-    <t>Pattern 79: Array - Product Except Self (Prefix/Suffix Products)</t>
-  </si>
-  <si>
-    <t>238. Product of Array Except Self</t>
-  </si>
-  <si>
-    <t>Pattern 80: Array - Plus One (Handling Carry)</t>
-  </si>
-  <si>
-    <t>66. Plus One</t>
-  </si>
-  <si>
-    <t>Pattern 81: Array - Merge Sorted Array (In-place from End)</t>
-  </si>
-  <si>
-    <t>88. Merge Sorted Array</t>
-  </si>
-  <si>
-    <t>Pattern 82: Array - Cyclic Sort</t>
-  </si>
-  <si>
-    <t>41. First Missing Positive, 268. Missing Number, 287. Find the Duplicate Number, 442. Find All Duplicates in an Array, 448. Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t>Pattern 83: Array - Kadane's Variant for Maximum Product</t>
-  </si>
-  <si>
-    <t>152. Maximum Product Subarray</t>
-  </si>
-  <si>
-    <t>XIV. String Manipulation Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 84: String - Palindrome Check (Two Pointers / Reverse)</t>
-  </si>
-  <si>
-    <t>9. Palindrome Number, 125. Valid Palindrome, 680. Valid Palindrome II</t>
-  </si>
-  <si>
-    <t>Pattern 85: String - Anagram Check (Frequency Count/Sort)</t>
-  </si>
-  <si>
-    <t>49. Group Anagrams, 242. Valid Anagram</t>
-  </si>
-  <si>
-    <t>Pattern 86: String - Roman to Integer Conversion</t>
-  </si>
-  <si>
-    <t>13. Roman to Integer</t>
-  </si>
-  <si>
-    <t>Pattern 87: String - String to Integer (atoi)</t>
-  </si>
-  <si>
-    <t>8. String to Integer (atoi)</t>
-  </si>
-  <si>
-    <t>Pattern 88: String - Multiply Strings (Manual Simulation)</t>
-  </si>
-  <si>
-    <t>43. Multiply Strings</t>
-  </si>
-  <si>
-    <t>Pattern 89: String Matching - Naive / KMP / Rabin-Karp</t>
-  </si>
-  <si>
-    <t>28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, 686. Repeated String Match, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-  </si>
-  <si>
-    <t>Pattern 90: String - Repeated Substring Pattern Detection</t>
-  </si>
-  <si>
-    <t>459. Repeated Substring Pattern</t>
-  </si>
-  <si>
-    <t>XV. Design Patterns</t>
-  </si>
-  <si>
-    <t>Pattern 91: Design (General/Specific)</t>
-  </si>
-  <si>
-    <t>146. LRU Cache, 155. Min Stack, 208. Implement Trie (Prefix Tree), 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues, 232. Implement Queue using Stacks, 251. Flatten 2D Vector, 271. Encode and Decode Strings, 295. Find Median from Data Stream, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure, 460. LFU Cache, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>85. Maximal Rectangle</t>
+    </r>
   </si>
   <si>
     <r>
@@ -579,7 +1019,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1. Two Sum, 11. Container With Most Water, 15. 3Sum, 16. 3Sum Closest, 18. 4Sum, 167. Two Sum II - Input Array Is Sorted,</t>
+      <t>83. Remove Duplicates from Sorted List,</t>
     </r>
     <r>
       <rPr>
@@ -588,21 +1028,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 349. Intersection of Two Arrays, 881. Boats to Save People, 977. Squares of a Sorted Array, 259. 3Sum Smaller</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">62. Unique Paths, 63. Unique Paths II, 64. Minimum Path Sum, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>120. Triangle</t>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 25. Reverse Nodes in k-Group</t>
     </r>
     <r>
       <rPr>
@@ -611,333 +1046,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 221. Maximal Square, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>151. Reverse Words in a String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 443. String Compression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>215. Kth Largest Element in an Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>506. Relative Ranks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1046. Last Stone Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2558. Take Gifts From the Richest Pile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20. Valid Parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List, 25. Reverse Nodes in k-Group, 234. Palindrome Linked List, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>410. Split Array Largest Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>253. Meeting Rooms II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 767. Reorganize String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1143. Longest Common Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>743. Network Delay Time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>200. Number of Islands,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>102. Binary Tree Level Order Traversal,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 103. Binary Tree Zigzag Level Order Traversal, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+      <t>, 234. Palindrome Linked List, 82. Remove Duplicates from Sorted List II</t>
     </r>
   </si>
 </sst>
@@ -1368,14 +1477,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="143.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="150.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1456,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1501,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1524,7 +1633,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1544,7 +1653,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1602,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1647,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1659,10 +1768,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1674,10 +1783,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1689,7 +1798,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -1702,10 +1811,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1717,10 +1826,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1732,10 +1841,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1747,10 +1856,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1762,10 +1871,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1777,10 +1886,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1792,10 +1901,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1807,10 +1916,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1822,7 +1931,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -1838,10 +1947,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1853,10 +1962,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1868,10 +1977,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1883,10 +1992,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1898,10 +2007,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1913,10 +2022,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1928,10 +2037,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1943,10 +2052,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1958,10 +2067,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1973,10 +2082,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1988,10 +2097,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2003,7 +2112,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -2016,10 +2125,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2031,10 +2140,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2046,10 +2155,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2061,10 +2170,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2076,7 +2185,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -2089,10 +2198,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2104,10 +2213,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2119,10 +2228,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2134,10 +2243,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2149,10 +2258,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2164,10 +2273,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2179,10 +2288,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2194,7 +2303,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2207,10 +2316,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2222,10 +2331,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2237,10 +2346,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2252,10 +2361,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2267,10 +2376,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2282,7 +2391,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2295,10 +2404,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2310,10 +2419,10 @@
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2323,12 +2432,12 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2340,10 +2449,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2355,10 +2464,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2370,7 +2479,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2383,10 +2492,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2398,10 +2507,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2413,10 +2522,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2428,10 +2537,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2443,10 +2552,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2458,10 +2567,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2473,7 +2582,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2486,10 +2595,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2501,10 +2610,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2516,10 +2625,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2531,10 +2640,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2546,7 +2655,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2559,10 +2668,10 @@
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2574,10 +2683,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2589,10 +2698,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2604,10 +2713,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2619,10 +2728,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2634,7 +2743,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2647,10 +2756,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2662,10 +2771,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2677,10 +2786,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2692,10 +2801,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2707,10 +2816,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2722,10 +2831,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2737,10 +2846,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2752,10 +2861,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2767,7 +2876,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2780,10 +2889,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2795,10 +2904,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2810,10 +2919,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2825,10 +2934,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2840,10 +2949,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2855,10 +2964,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2870,10 +2979,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2885,7 +2994,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -2898,10 +3007,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1254F4D-2785-C742-9C98-8A37E2429BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95C6B7-EBFF-D14F-B06D-FB59EC90EB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
+    <workbookView xWindow="1280" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Pattern 10: Sliding Window - Monotonic Queue for Max/Min</t>
   </si>
   <si>
-    <t>239. Sliding Window Maximum, 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
-  </si>
-  <si>
     <t>Pattern 11: Sliding Window - Character Frequency Matching</t>
   </si>
   <si>
@@ -113,30 +110,18 @@
     <t>Pattern 13: Tree DFS - Recursive Preorder Traversal</t>
   </si>
   <si>
-    <t>100. Same Tree, 101. Symmetric Tree, 105. Construct Binary Tree from Preorder and Inorder Traversal, 114. Flatten Binary Tree to Linked List, 226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
-  </si>
-  <si>
     <t>Pattern 14: Tree DFS - Recursive Inorder Traversal</t>
   </si>
   <si>
-    <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator, 230. Kth Smallest Element in a BST, 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
     <t>Pattern 15: Tree DFS - Recursive Postorder Traversal</t>
   </si>
   <si>
     <t>Pattern 17: Tree - Lowest Common Ancestor (LCA) Finding</t>
   </si>
   <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree, 236. Lowest Common Ancestor of a Binary Tree</t>
-  </si>
-  <si>
     <t>Pattern 18: Tree - Serialization and Deserialization</t>
   </si>
   <si>
-    <t>297. Serialize and Deserialize Binary Tree, 572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
-  </si>
-  <si>
     <t>IV. Graph Traversal Patterns (DFS &amp; BFS)</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
     <t>Pattern 20: Graph BFS - Connected Components / Island Counting</t>
   </si>
   <si>
-    <t>127. Word Ladder, 542. 01 Matrix, 994. Rotting Oranges, 1091. Shortest Path in Binary Matrix</t>
-  </si>
-  <si>
     <t>Pattern 21: Graph DFS - Cycle Detection (Directed Graph)</t>
   </si>
   <si>
@@ -194,15 +176,9 @@
     <t>Pattern 29: DP - 1D Array (Coin Change / Unbounded Knapsack Style)</t>
   </si>
   <si>
-    <t>322. Coin Change, 377. Combination Sum IV, 518. Coin Change II</t>
-  </si>
-  <si>
     <t>Pattern 30: DP - 1D Array (0/1 Knapsack Subset Sum Style)</t>
   </si>
   <si>
-    <t>416. Partition Equal Subset Sum, 494. Target Sum</t>
-  </si>
-  <si>
     <t>Pattern 31: DP - 1D Array (Word Break Style)</t>
   </si>
   <si>
@@ -236,9 +212,6 @@
     <t>Pattern 37: DP - Longest Increasing Subsequence (LIS)</t>
   </si>
   <si>
-    <t>300. Longest Increasing Subsequence, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
-  </si>
-  <si>
     <t>VI. Heap (Priority Queue) Patterns</t>
   </si>
   <si>
@@ -272,9 +245,6 @@
     <t>Pattern 44: Backtracking - Combination Sum</t>
   </si>
   <si>
-    <t>39. Combination Sum, 40. Combination Sum II</t>
-  </si>
-  <si>
     <t>Pattern 45: Backtracking - Parentheses Generation</t>
   </si>
   <si>
@@ -302,9 +272,6 @@
     <t>Pattern 49: Greedy - Interval Merging/Scheduling</t>
   </si>
   <si>
-    <t>56. Merge Intervals, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
-  </si>
-  <si>
     <t>Pattern 51: Greedy - Jump Game Reachability/Minimization</t>
   </si>
   <si>
@@ -335,9 +302,6 @@
     <t>Pattern 55: Binary Search - On Sorted Array/List</t>
   </si>
   <si>
-    <t>35. Search Insert Position, 69. Sqrt(x), 74. Search a 2D Matrix, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-  </si>
-  <si>
     <t>Pattern 56: Binary Search - Find Min/Max in Rotated Sorted Array</t>
   </si>
   <si>
@@ -368,9 +332,6 @@
     <t>Pattern 61: Stack - Monotonic Stack</t>
   </si>
   <si>
-    <t>402. Remove K Digits, 496. Next Greater Element I, 503. Next Greater Element II, 739. Daily Temperatures, 901. Online Stock Span, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
-  </si>
-  <si>
     <t>Pattern 62: Stack - Expression Evaluation (RPN/Infix)</t>
   </si>
   <si>
@@ -446,9 +407,6 @@
     <t>Pattern 75: Linked List - Reordering / Partitioning</t>
   </si>
   <si>
-    <t>24. Swap Nodes in Pairs, 61. Rotate List, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
-  </si>
-  <si>
     <t>XIII. Array/Matrix Manipulation Patterns</t>
   </si>
   <si>
@@ -536,9 +494,6 @@
     <t>Pattern 89: String Matching - Naive / KMP / Rabin-Karp</t>
   </si>
   <si>
-    <t>28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, 686. Repeated String Match, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-  </si>
-  <si>
     <t>Pattern 90: String - Repeated Substring Pattern Detection</t>
   </si>
   <si>
@@ -551,9 +506,6 @@
     <t>Pattern 91: Design (General/Specific)</t>
   </si>
   <si>
-    <t>146. LRU Cache, 155. Min Stack, 208. Implement Trie (Prefix Tree), 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues, 232. Implement Queue using Stacks, 251. Flatten 2D Vector, 271. Encode and Decode Strings, 295. Find Median from Data Stream, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure, 460. LFU Cache, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -618,7 +570,7 @@
   </si>
   <si>
     <r>
-      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
+      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
     </r>
     <r>
       <rPr>
@@ -627,6 +579,395 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>215. Kth Largest Element in an Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>506. Relative Ranks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1046. Last Stone Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2558. Take Gifts From the Richest Pile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20. Valid Parentheses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>253. Meeting Rooms II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 767. Reorganize String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1143. Longest Common Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>743. Network Delay Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200. Number of Islands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>207. Course Schedule, 210. Course Schedule II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23. Merge k Sorted Lists, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>632. Smallest Range Covering Elements from K Lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1825. Finding MK Average</t>
+    </r>
+  </si>
+  <si>
+    <t>37. Sudoku Solver, 51. N-Queens</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>85. Maximal Rectangle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>239. Sliding Window Maximum,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">297. Serialize and Deserialize Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300. Longest Increasing Subsequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">127. Word Ladder, 542. 01 Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>994. Rotting Oranges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1091. Shortest Path in Binary Matrix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26. Remove Duplicates from Sorted Array,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> 443. String Compression</t>
     </r>
     <r>
@@ -641,8 +982,225 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
-    </r>
+      <t>39. Combination Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 40. Combination Sum II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56. Merge Intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24. Swap Nodes in Pairs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 61. Rotate List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74. Search a 2D Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100. Same Tree, 101. Symmetric Tree, 105. Construct Binary Tree from Preorder and Inorder Traversal, 114. Flatten Binary Tree to Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">104. Maximum Depth of Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>110. Balanced Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>543. Diameter of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>103. Binary Tree Zigzag Level Order Traversa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>686. Repeated String Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -650,16 +1208,185 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 733. Flood Fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 230. Kth Smallest Element in a BST,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 155. Min Stack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>208. Implement Trie (Prefix Tree)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 232. Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>271. Encode and Decode Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 460. LFU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
     </r>
   </si>
   <si>
@@ -670,92 +1397,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>215. Kth Largest Element in an Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>506. Relative Ranks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1046. Last Stone Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2558. Take Gifts From the Richest Pile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20. Valid Parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
     </r>
     <r>
       <rPr>
@@ -764,84 +1415,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>410. Split Array Largest Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>253. Meeting Rooms II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 767. Reorganize String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1143. Longest Common Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>743. Network Delay Time</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25. Reverse Nodes in k-Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -850,102 +1442,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>200. Number of Islands,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>102. Binary Tree Level Order Traversal,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 103. Binary Tree Zigzag Level Order Traversal, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>207. Course Schedule, 210. Course Schedule II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23. Merge k Sorted Lists, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>632. Smallest Range Covering Elements from K Lists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>295. Find Median from Data Stream</t>
-    </r>
+      <t>234. Palindrome Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -953,100 +1462,97 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1825. Finding MK Average</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">104. Maximum Depth of Binary Tree, 110. Balanced Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>124. Binary Tree Maximum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, 543. Diameter of Binary Tree, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
-    </r>
-  </si>
-  <si>
-    <t>37. Sudoku Solver, 51. N-Queens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>85. Maximal Rectangle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 25. Reverse Nodes in k-Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 234. Palindrome Linked List, 82. Remove Duplicates from Sorted List II</t>
+      <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 236. Lowest Common Ancestor of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>322. Coin Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 377. Combination Sum IV, 518. Coin Change II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>416. Partition Equal Subset Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 494. Target Sum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>402. Remove K Digits,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 496. Next Greater Element I,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 901. Online Stock Span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
     </r>
   </si>
 </sst>
@@ -1054,7 +1560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1100,6 +1606,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1121,7 +1639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1139,6 +1657,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1477,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1565,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1610,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1653,7 +2174,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1668,7 +2189,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1680,10 +2201,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1695,7 +2216,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1708,10 +2229,10 @@
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1723,10 +2244,10 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1738,10 +2259,10 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1753,10 +2274,10 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1768,10 +2289,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1783,10 +2304,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1798,7 +2319,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -1811,10 +2332,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1826,10 +2347,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1841,10 +2362,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1856,10 +2377,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1871,10 +2392,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1886,10 +2407,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1901,10 +2422,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1916,10 +2437,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1931,7 +2452,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -1947,10 +2468,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1962,10 +2483,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1977,10 +2498,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1992,10 +2513,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2007,10 +2528,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2022,10 +2543,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2037,10 +2558,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2052,10 +2573,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2067,10 +2588,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2082,10 +2603,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2097,10 +2618,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2112,7 +2633,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -2125,10 +2646,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2140,10 +2661,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2155,10 +2676,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2170,10 +2691,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2185,7 +2706,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -2198,10 +2719,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2213,10 +2734,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2228,10 +2749,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2243,10 +2764,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2258,10 +2779,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2273,10 +2794,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2288,10 +2809,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2303,7 +2824,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2316,10 +2837,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2331,10 +2852,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2346,10 +2867,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2361,10 +2882,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2376,10 +2897,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2391,7 +2912,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2404,10 +2925,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2419,10 +2940,10 @@
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2434,10 +2955,10 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2449,10 +2970,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2464,10 +2985,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2479,7 +3000,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2492,10 +3013,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2507,10 +3028,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2522,10 +3043,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2537,10 +3058,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2552,10 +3073,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2567,10 +3088,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2582,7 +3103,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2595,10 +3116,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2610,10 +3131,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2625,10 +3146,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2640,10 +3161,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2655,7 +3176,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2668,10 +3189,10 @@
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2683,10 +3204,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2698,10 +3219,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2713,10 +3234,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2728,10 +3249,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2743,7 +3264,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2756,10 +3277,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2771,10 +3292,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2786,10 +3307,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2801,10 +3322,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2816,10 +3337,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2831,10 +3352,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2846,10 +3367,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2861,10 +3382,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2876,7 +3397,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2889,10 +3410,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2904,10 +3425,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2919,10 +3440,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2934,10 +3455,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2949,10 +3470,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2964,10 +3485,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2979,10 +3500,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2994,7 +3515,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -3007,10 +3528,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95C6B7-EBFF-D14F-B06D-FB59EC90EB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D60A3E-19E7-8E45-AB5E-FB95A6C9BEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
@@ -944,12 +944,587 @@
   </si>
   <si>
     <r>
+      <t>39. Combination Sum</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFFC000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>, 40. Combination Sum II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56. Merge Intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24. Swap Nodes in Pairs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 61. Rotate List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74. Search a 2D Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100. Same Tree, 101. Symmetric Tree, 105. Construct Binary Tree from Preorder and Inorder Traversal, 114. Flatten Binary Tree to Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">104. Maximum Depth of Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>110. Balanced Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>543. Diameter of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>103. Binary Tree Zigzag Level Order Traversa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>686. Repeated String Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 733. Flood Fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 230. Kth Smallest Element in a BST,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 155. Min Stack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>208. Implement Trie (Prefix Tree)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 232. Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>271. Encode and Decode Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 460. LFU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25. Reverse Nodes in k-Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234. Palindrome Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 236. Lowest Common Ancestor of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>322. Coin Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 377. Combination Sum IV, 518. Coin Change II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>416. Partition Equal Subset Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 494. Target Sum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>402. Remove K Digits,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 496. Next Greater Element I,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 901. Online Stock Span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>26. Remove Duplicates from Sorted Array,</t>
     </r>
     <r>
@@ -968,7 +1543,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 443. String Compression</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>443. String Compression</t>
     </r>
     <r>
       <rPr>
@@ -978,581 +1562,6 @@
         <family val="2"/>
       </rPr>
       <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>39. Combination Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 40. Combination Sum II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>56. Merge Intervals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24. Swap Nodes in Pairs,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 61. Rotate List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74. Search a 2D Matrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100. Same Tree, 101. Symmetric Tree, 105. Construct Binary Tree from Preorder and Inorder Traversal, 114. Flatten Binary Tree to Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">104. Maximum Depth of Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>110. Balanced Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>124. Binary Tree Maximum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>543. Diameter of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>102. Binary Tree Level Order Traversal,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>103. Binary Tree Zigzag Level Order Traversa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>l, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>686. Repeated String Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 733. Flood Fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 230. Kth Smallest Element in a BST,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>146. LRU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 155. Min Stack, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>208. Implement Trie (Prefix Tree)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 232. Implement Queue using Stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>271. Encode and Decode Strings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 460. LFU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 25. Reverse Nodes in k-Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>234. Palindrome Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 236. Lowest Common Ancestor of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>322. Coin Change</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 377. Combination Sum IV, 518. Coin Change II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>416. Partition Equal Subset Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 494. Target Sum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>402. Remove K Digits,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 496. Next Greater Element I,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 901. Online Stock Span</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
     </r>
   </si>
 </sst>
@@ -1998,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2232,7 +2241,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2247,7 +2256,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2262,7 +2271,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2277,7 +2286,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2292,7 +2301,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2335,7 +2344,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2501,7 +2510,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2516,7 +2525,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2752,7 +2761,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2840,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2928,7 +2937,7 @@
         <v>87</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3031,7 +3040,7 @@
         <v>97</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3192,7 +3201,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3252,7 +3261,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3488,7 +3497,7 @@
         <v>151</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3531,7 +3540,7 @@
         <v>155</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D60A3E-19E7-8E45-AB5E-FB95A6C9BEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC46EAB-B724-8A4D-A45C-6558D8398D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
+    <workbookView xWindow="460" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,9 @@
     <t>Pattern 17: Tree - Lowest Common Ancestor (LCA) Finding</t>
   </si>
   <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree, 236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
     <t>Pattern 18: Tree - Serialization and Deserialization</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t>Pattern 30: DP - 1D Array (0/1 Knapsack Subset Sum Style)</t>
   </si>
   <si>
+    <t>416. Partition Equal Subset Sum, 494. Target Sum</t>
+  </si>
+  <si>
     <t>Pattern 31: DP - 1D Array (Word Break Style)</t>
   </si>
   <si>
@@ -921,7 +927,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">127. Word Ladder, 542. 01 Matrix, </t>
+      <t>24. Swap Nodes in Pairs,</t>
     </r>
     <r>
       <rPr>
@@ -930,7 +936,589 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>994. Rotting Oranges</t>
+      <t xml:space="preserve"> 61. Rotate List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74. Search a 2D Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>686. Repeated String Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 155. Min Stack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>208. Implement Trie (Prefix Tree)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 232. Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>271. Encode and Decode Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 460. LFU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25. Reverse Nodes in k-Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234. Palindrome Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>402. Remove K Digits,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 496. Next Greater Element I,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 901. Online Stock Span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26. Remove Duplicates from Sorted Array,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>443. String Compression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal, 103. Binary Tree Zigzag Level Order Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100. Same Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>101. Symmetric Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>230. Kth Smallest Element in a BST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>104. Maximum Depth of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 110. Balanced Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 733. Flood Fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>127. Word Ladder, 542. 01 Matrix,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 994. Rotting Oranges</t>
     </r>
     <r>
       <rPr>
@@ -944,6 +1532,32 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>322. Coin Change,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>39. Combination Sum</t>
     </r>
     <r>
@@ -953,116 +1567,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 40. Combination Sum II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>56. Merge Intervals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24. Swap Nodes in Pairs,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 61. Rotate List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74. Search a 2D Matrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100. Same Tree, 101. Symmetric Tree, 105. Construct Binary Tree from Preorder and Inorder Traversal, 114. Flatten Binary Tree to Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">104. Maximum Depth of Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>110. Balanced Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1071,34 +1576,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>124. Binary Tree Maximum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>543. Diameter of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+      <t xml:space="preserve"> 40. Combination Sum II</t>
     </r>
   </si>
   <si>
@@ -1109,459 +1587,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>102. Binary Tree Level Order Traversal,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>103. Binary Tree Zigzag Level Order Traversa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>l, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>686. Repeated String Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 733. Flood Fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 230. Kth Smallest Element in a BST,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>146. LRU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 155. Min Stack, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>208. Implement Trie (Prefix Tree)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 232. Implement Queue using Stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>271. Encode and Decode Strings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 460. LFU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 25. Reverse Nodes in k-Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>234. Palindrome Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 236. Lowest Common Ancestor of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>322. Coin Change</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 377. Combination Sum IV, 518. Coin Change II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>416. Partition Equal Subset Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 494. Target Sum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>402. Remove K Digits,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 496. Next Greater Element I,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 901. Online Stock Span</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>26. Remove Duplicates from Sorted Array,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>443. String Compression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+      <t>56. Merge Intervals,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
     </r>
   </si>
 </sst>
@@ -2007,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2050,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2095,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2140,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2183,7 +2218,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2198,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2241,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2256,7 +2291,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2271,7 +2306,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2286,7 +2321,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2300,8 +2335,8 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>188</v>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2313,10 +2348,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2328,7 +2363,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -2341,10 +2376,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2356,10 +2391,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2371,10 +2406,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2386,10 +2421,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2401,10 +2436,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2416,10 +2451,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2431,10 +2466,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2446,10 +2481,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2461,7 +2496,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -2477,10 +2512,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2492,10 +2527,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2507,10 +2542,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2522,10 +2557,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>190</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2537,10 +2572,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2552,10 +2587,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2567,10 +2602,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2582,10 +2617,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2597,10 +2632,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2612,10 +2647,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2627,10 +2662,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2642,7 +2677,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -2655,10 +2690,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2670,10 +2705,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2685,10 +2720,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2700,10 +2735,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2715,7 +2750,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -2728,10 +2763,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2743,10 +2778,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2758,10 +2793,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2773,10 +2808,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2788,10 +2823,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2803,10 +2838,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2818,10 +2853,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2833,7 +2868,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2846,10 +2881,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2861,10 +2896,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2876,10 +2911,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2891,10 +2926,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2906,10 +2941,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2921,7 +2956,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2934,10 +2969,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2949,10 +2984,10 @@
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2964,10 +2999,10 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2979,10 +3014,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2994,10 +3029,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3009,7 +3044,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -3022,10 +3057,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3037,10 +3072,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3052,10 +3087,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3067,10 +3102,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3082,10 +3117,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3097,10 +3132,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3112,7 +3147,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -3125,10 +3160,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3140,10 +3175,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3155,10 +3190,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3170,10 +3205,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3185,7 +3220,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -3198,10 +3233,10 @@
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3213,10 +3248,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3228,10 +3263,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3243,10 +3278,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3258,10 +3293,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3273,7 +3308,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -3286,10 +3321,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3301,10 +3336,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3316,10 +3351,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3331,10 +3366,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3346,10 +3381,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3361,10 +3396,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3376,10 +3411,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3391,10 +3426,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3406,7 +3441,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -3419,10 +3454,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3434,10 +3469,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3449,10 +3484,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3464,10 +3499,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3479,10 +3514,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3494,10 +3529,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3509,10 +3544,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3524,7 +3559,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -3537,10 +3572,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC46EAB-B724-8A4D-A45C-6558D8398D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB326E4C-A7CD-4445-8C3F-CD9954786EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Pattern</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Pattern 2: Two Pointers - Fast &amp; Slow (Cycle Detection)</t>
   </si>
   <si>
-    <t>141. Linked List Cycle, 202. Happy Number, 287. Find the Duplicate Number, 392. Is Subsequence,</t>
-  </si>
-  <si>
     <t>Pattern 3: Two Pointers - Fixed Separation (Nth Node from End)</t>
   </si>
   <si>
-    <t>19. Remove Nth Node From End of List, 876. Middle of the Linked List, 2095. Delete the Middle Node of a Linked List</t>
-  </si>
-  <si>
     <t>Pattern 4: Two Pointers - In-place Array Modification</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>Pattern 27: DP - 1D Array (Fibonacci Style)</t>
   </si>
   <si>
-    <t>70. Climbing Stairs, 91. Decode Ways, 198. House Robber, 213. House Robber II, 337. House Robber III, 509. Fibonacci Number, 740. Delete and Earn, 746. Min Cost Climbing Stairs</t>
-  </si>
-  <si>
     <t>Pattern 28: DP - 1D Array (Kadane's Algorithm for Max/Min Subarray)</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
     <t>Pattern 85: String - Anagram Check (Frequency Count/Sort)</t>
   </si>
   <si>
-    <t>49. Group Anagrams, 242. Valid Anagram</t>
-  </si>
-  <si>
     <t>Pattern 86: String - Roman to Integer Conversion</t>
   </si>
   <si>
@@ -533,15 +521,1275 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">62. Unique Paths, 63. Unique Paths II, 64. Minimum Path Sum, </t>
-    </r>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="6" tint="0.39997558519241921"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>151. Reverse Words in a String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>215. Kth Largest Element in an Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>506. Relative Ranks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1046. Last Stone Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2558. Take Gifts From the Richest Pile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20. Valid Parentheses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>253. Meeting Rooms II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 767. Reorganize String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1143. Longest Common Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>743. Network Delay Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200. Number of Islands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>207. Course Schedule, 210. Course Schedule II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1825. Finding MK Average</t>
+    </r>
+  </si>
+  <si>
+    <t>37. Sudoku Solver, 51. N-Queens</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>85. Maximal Rectangle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>239. Sliding Window Maximum,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">297. Serialize and Deserialize Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300. Longest Increasing Subsequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal, 103. Binary Tree Zigzag Level Order Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100. Same Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>101. Symmetric Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>230. Kth Smallest Element in a BST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>104. Maximum Depth of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 110. Balanced Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 733. Flood Fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>127. Word Ladder, 542. 01 Matrix,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 994. Rotting Oranges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1091. Shortest Path in Binary Matrix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>322. Coin Change,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>39. Combination Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40. Combination Sum II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56. Merge Intervals,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74. Search a 2D Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>402. Remove K Digits,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>496. Next Greater Element I,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 901. Online Stock Span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25. Reverse Nodes in k-Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234. Palindrome Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 155. Min Stack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>208. Implement Trie (Prefix Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>232. Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>271. Encode and Decode Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 460. LFU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>70. Climbing Stairs, 91. Decode Ways,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>198. House Robber, 213. House Robber II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 337. House Robber III,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 509. Fibonacci Number, 740. Delete and Earn, 746. Min Cost Climbing Stairs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Longest Substring Without Repeating Characters,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 76. Minimum Window Substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+    </r>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Don't get it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23. Merge k Sorted Lists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>632. Smallest Range Covering Elements from K Lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24. Swap Nodes in Pairs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 61. Rotate List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 86. Partition List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>143. Reorder List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 328. Odd Even Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49. Group Anagrams,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>242. Valid Anagram</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28. Find the Index of the First Occurrence in a String,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 214. Shortest Palindrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>686. Repeated String Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>62. Unique Paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 63. Unique Paths II,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>64. Minimum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>120. Triangle</t>
     </r>
     <r>
@@ -551,10 +1799,122 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 221. Maximal Square, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>221. Maximal Square</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>141. Linked List Cycle, 202. Happy Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 287. Find the Duplicate Number, 392. Is Subsequence,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19. Remove Nth Node From End of List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>876. Middle of the Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2095. Delete the Middle Node of a Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>283. Move Zeroes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -562,680 +1922,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>151. Reverse Words in a String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, 1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>215. Kth Largest Element in an Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>506. Relative Ranks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1046. Last Stone Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2558. Take Gifts From the Richest Pile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20. Valid Parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>410. Split Array Largest Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>253. Meeting Rooms II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 767. Reorganize String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1143. Longest Common Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>743. Network Delay Time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>200. Number of Islands,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>207. Course Schedule, 210. Course Schedule II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23. Merge k Sorted Lists, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>632. Smallest Range Covering Elements from K Lists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1825. Finding MK Average</t>
-    </r>
-  </si>
-  <si>
-    <t>37. Sudoku Solver, 51. N-Queens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>85. Maximal Rectangle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>239. Sliding Window Maximum,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">297. Serialize and Deserialize Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>300. Longest Increasing Subsequence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24. Swap Nodes in Pairs,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 61. Rotate List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 86. Partition List, 143. Reorder List, 328. Odd Even Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74. Search a 2D Matrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">28. Find the Index of the First Occurrence in a String, 214. Shortest Palindrome, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>686. Repeated String Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>146. LRU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 155. Min Stack, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>208. Implement Trie (Prefix Tree)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 232. Implement Queue using Stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>271. Encode and Decode Strings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 460. LFU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 25. Reverse Nodes in k-Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>234. Palindrome Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>402. Remove K Digits,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 496. Next Greater Element I,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 901. Online Stock Span</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>26. Remove Duplicates from Sorted Array,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II, 283. Move Zeroes,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1255,348 +1941,6 @@
         <family val="2"/>
       </rPr>
       <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>102. Binary Tree Level Order Traversal, 103. Binary Tree Zigzag Level Order Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100. Same Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>101. Symmetric Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>230. Kth Smallest Element in a BST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>104. Maximum Depth of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 110. Balanced Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>124. Binary Tree Maximum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 733. Flood Fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>127. Word Ladder, 542. 01 Matrix,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 994. Rotting Oranges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 1091. Shortest Path in Binary Matrix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>322. Coin Change,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>39. Combination Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 40. Combination Sum II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>56. Merge Intervals,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
     </r>
   </si>
 </sst>
@@ -1604,7 +1948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1662,6 +2006,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1703,9 +2054,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2085,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2100,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2112,10 +2461,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2127,10 +2476,10 @@
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2142,10 +2491,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2157,10 +2506,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2172,10 +2521,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2187,7 +2536,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2200,10 +2549,10 @@
     </row>
     <row r="11" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2215,10 +2564,10 @@
     </row>
     <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2230,10 +2579,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2245,10 +2594,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2260,7 +2609,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2273,10 +2622,10 @@
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2288,10 +2637,10 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2303,10 +2652,10 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2318,10 +2667,10 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2333,10 +2682,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2348,10 +2697,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2363,7 +2712,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -2376,10 +2725,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2391,10 +2740,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2406,10 +2755,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2421,10 +2770,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2436,10 +2785,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2451,10 +2800,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2466,10 +2815,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2481,10 +2830,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2496,7 +2845,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -2512,10 +2861,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2527,10 +2876,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2542,10 +2891,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2557,10 +2906,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2572,10 +2921,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2587,10 +2936,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2602,10 +2951,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2617,10 +2966,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2632,10 +2981,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2647,10 +2996,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2662,10 +3011,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2677,7 +3026,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -2690,10 +3039,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2705,10 +3054,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2720,10 +3069,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2735,10 +3084,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2750,7 +3099,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -2763,10 +3112,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2778,10 +3127,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2793,10 +3142,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2808,10 +3157,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2823,10 +3172,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2838,10 +3187,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2853,10 +3202,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2868,7 +3217,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -2881,10 +3230,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2896,10 +3245,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2911,10 +3260,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2926,10 +3275,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2941,10 +3290,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2956,7 +3305,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2969,10 +3318,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2984,10 +3333,10 @@
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2999,10 +3348,10 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3014,10 +3363,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3029,10 +3378,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3044,7 +3393,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -3057,10 +3406,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3072,10 +3421,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3087,10 +3436,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3102,10 +3451,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3117,10 +3466,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3132,10 +3481,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3147,7 +3496,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -3160,10 +3509,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3175,10 +3524,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3190,10 +3539,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3205,10 +3554,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3220,7 +3569,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -3233,7 +3582,7 @@
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>181</v>
@@ -3248,10 +3597,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3263,10 +3612,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3278,10 +3627,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3293,10 +3642,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3308,7 +3657,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -3321,10 +3670,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3336,10 +3685,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3351,10 +3700,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3366,10 +3715,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3381,10 +3730,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3396,10 +3745,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3411,10 +3760,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3426,10 +3775,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3441,7 +3790,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -3454,10 +3803,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3469,10 +3818,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3484,10 +3833,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3499,10 +3848,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3514,10 +3863,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3529,10 +3878,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3544,10 +3893,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3559,7 +3908,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -3572,10 +3921,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3584,6 +3933,14 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB326E4C-A7CD-4445-8C3F-CD9954786EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1074BD3-D8BA-BB4F-8A1C-DF61A374ABF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Pattern 6: Two Pointers - Expanding From Center (Palindromes)</t>
   </si>
   <si>
-    <t>5. Longest Palindromic Substring, 647. Palindromic Substrings</t>
-  </si>
-  <si>
     <t>Pattern 7: Two Pointers - String Reversal</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Pattern 8: Sliding Window - Fixed Size (Subarray Calculation)</t>
   </si>
   <si>
-    <t>346. Moving Average from Data Stream, 643. Maximum Average Subarray I, 2985. Calculate Compressed Mean, 3254. Find the Power of K-Size Subarrays I, 3318. Find X-Sum of All K-Long Subarrays I</t>
-  </si>
-  <si>
     <t>Pattern 9: Sliding Window - Variable Size (Condition-Based)</t>
   </si>
   <si>
@@ -527,6 +521,1504 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>215. Kth Largest Element in an Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>506. Relative Ranks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1046. Last Stone Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2558. Take Gifts From the Richest Pile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20. Valid Parentheses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>410. Split Array Largest Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>253. Meeting Rooms II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 767. Reorganize String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1143. Longest Common Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>743. Network Delay Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200. Number of Islands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>207. Course Schedule, 210. Course Schedule II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1825. Finding MK Average</t>
+    </r>
+  </si>
+  <si>
+    <t>37. Sudoku Solver, 51. N-Queens</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>85. Maximal Rectangle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>239. Sliding Window Maximum,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">297. Serialize and Deserialize Binary Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300. Longest Increasing Subsequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102. Binary Tree Level Order Traversal, 103. Binary Tree Zigzag Level Order Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100. Same Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>101. Symmetric Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>230. Kth Smallest Element in a BST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>104. Maximum Depth of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 110. Balanced Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 200. Number of Islands, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417. Pacific Atlantic Water Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 547. Number of Provinces, 695. Max Area of Island</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 733. Flood Fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>127. Word Ladder, 542. 01 Matrix,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 994. Rotting Oranges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1091. Shortest Path in Binary Matrix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>322. Coin Change,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>39. Combination Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40. Combination Sum II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56. Merge Intervals,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74. Search a 2D Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>402. Remove K Digits,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>496. Next Greater Element I,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 901. Online Stock Span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25. Reverse Nodes in k-Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234. Palindrome Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 155. Min Stack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>208. Implement Trie (Prefix Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>232. Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>271. Encode and Decode Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 460. LFU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>70. Climbing Stairs, 91. Decode Ways,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>198. House Robber, 213. House Robber II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 337. House Robber III,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 509. Fibonacci Number, 740. Delete and Earn, 746. Min Cost Climbing Stairs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Longest Substring Without Repeating Characters,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 76. Minimum Window Substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+    </r>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Don't get it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23. Merge k Sorted Lists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>632. Smallest Range Covering Elements from K Lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24. Swap Nodes in Pairs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 61. Rotate List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 86. Partition List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>143. Reorder List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 328. Odd Even Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49. Group Anagrams,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>242. Valid Anagram</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28. Find the Index of the First Occurrence in a String,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 214. Shortest Palindrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>686. Repeated String Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>62. Unique Paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 63. Unique Paths II,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>64. Minimum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120. Triangle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>221. Maximal Square</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>141. Linked List Cycle, 202. Happy Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 287. Find the Duplicate Number, 392. Is Subsequence,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19. Remove Nth Node From End of List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>876. Middle of the Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2095. Delete the Middle Node of a Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>283. Move Zeroes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>443. String Compression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5. Longest Palindromic Substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 647. Palindromic Substrings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>346. Moving Average from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>643. Maximum Average Subarray I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2985. Calculate Compressed Mea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3254. Find the Power of K-Size Subarrays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I, 3318. Find X-Sum of All K-Long Subarrays I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>151. Reverse Words in a String</t>
     </r>
     <r>
@@ -536,478 +2028,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 344. Reverse String, 345. Reverse Vowels of a String, 541. Reverse String II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>215. Kth Largest Element in an Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 347. Top K Frequent Elements, 451. Sort Characters By Frequency, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>506. Relative Ranks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 703. Kth Largest Element in a Stream, 973. K Closest Points to Origin, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1046. Last Stone Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2558. Take Gifts From the Richest Pile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20. Valid Parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 32. Longest Valid Parentheses, 921. Minimum Add to Make Parentheses Valid, 1249. Minimum Remove to Make Valid Parentheses, 1963. Minimum Number of Swaps to Make the String Balanced</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>410. Split Array Largest Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 774. Minimize Max Distance to Gas Station, 875. Koko Eating Bananas, 1011. Capacity To Ship Packages 6 Within D Days, 1482. Minimum Number of Days to Make m Bouquets, 1760. Minimum Limit of Balls in a Bag, 2064. Minimized Maximum of Products Distributed to Any Store, 2226. Maximum Candies Allocated to K Children</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>253. Meeting Rooms II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 767. Reorganize String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 857. Minimum Cost to Hire K Workers, 1642. Furthest Building You Can Reach, 1792. Maximum Average Pass Ratio, 1834. Single-Threaded CPU, 1942. The Number of the Smallest Unoccupied Chair, 2402. Meeting Rooms III</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">583. Delete Operation for Two Strings, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1143. Longest Common Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>743. Network Delay Time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 778. Swim in Rising Water, 1514. Path with Maximum Probability, 1631. Path With Minimum Effort, 1976. Number of Ways to Arrive at Destination, 2045. Second Minimum Time to Reach Destination, 2203. Minimum Weighted Subgraph With the Required Paths, 2290. Minimum Obstacle Removal to Reach Corner, 2577. Minimum Time to Visit a Cell In a Grid, 2812. Find the Safest Path in a Grid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>200. Number of Islands,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 261. Graph Valid Tree, 305. Number of Islands II, 323. Number of Connected Components in an Undirected Graph, 3 547. Number of Provinces, 684. Redundant Connection, 4 721. Accounts Merge, 737. Sentence Similarity II, 947. Most Stones Removed with Same Row or Column, 952. Largest Component Size by Common Factor, 959. Regions Cut By Slashes, 1101. The Earliest Moment When Everyone Become Friends</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>207. Course Schedule, 210. Course Schedule II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 269. Alien Dictionary, 310. Minimum Height Trees, 444. Sequence Reconstruction, 1136. Parallel Courses, 1857. Largest Color Value in a Directed Graph, 2050. Parallel Courses III, 2115. Find All Possible Recipes from Given Supplies, 2392. Build a Matrix With Conditions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1825. Finding MK Average</t>
-    </r>
-  </si>
-  <si>
-    <t>37. Sudoku Solver, 51. N-Queens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">84. Largest Rectangle in Histogram, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>85. Maximal Rectangle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>239. Sliding Window Maximum,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">297. Serialize and Deserialize Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>300. Longest Increasing Subsequence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>102. Binary Tree Level Order Traversal, 103. Binary Tree Zigzag Level Order Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100. Same Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>101. Symmetric Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>230. Kth Smallest Element in a BST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>104. Maximum Depth of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 110. Balanced Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -1017,930 +2037,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>124. Binary Tree Maximum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 733. Flood Fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>127. Word Ladder, 542. 01 Matrix,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 994. Rotting Oranges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 1091. Shortest Path in Binary Matrix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>322. Coin Change,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>39. Combination Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 40. Combination Sum II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>56. Merge Intervals,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74. Search a 2D Matrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>402. Remove K Digits,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>496. Next Greater Element I,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 901. Online Stock Span</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>25. Reverse Nodes in k-Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>234. Palindrome Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>146. LRU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 155. Min Stack, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>208. Implement Trie (Prefix Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>232. Implement Queue using Stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>271. Encode and Decode Strings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 460. LFU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>70. Climbing Stairs, 91. Decode Ways,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198. House Robber, 213. House Robber II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 337. House Robber III,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 509. Fibonacci Number, 740. Delete and Earn, 746. Min Cost Climbing Stairs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Longest Substring Without Repeating Characters,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 76. Minimum Window Substring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
-    </r>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Don't get it</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>23. Merge k Sorted Lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>632. Smallest Range Covering Elements from K Lists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24. Swap Nodes in Pairs,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 61. Rotate List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 86. Partition List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>143. Reorder List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 328. Odd Even Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>49. Group Anagrams,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>242. Valid Anagram</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28. Find the Index of the First Occurrence in a String,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 214. Shortest Palindrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>686. Repeated String Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>62. Unique Paths</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 63. Unique Paths II,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>64. Minimum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>120. Triangle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>221. Maximal Square</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>141. Linked List Cycle, 202. Happy Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 287. Find the Duplicate Number, 392. Is Subsequence,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>19. Remove Nth Node From End of List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>876. Middle of the Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2095. Delete the Middle Node of a Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>283. Move Zeroes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>443. String Compression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+      <t>344. Reverse String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 345. Reverse Vowels of a String, 541. Reverse String II</t>
     </r>
   </si>
 </sst>
@@ -2391,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2449,7 +2555,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2464,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2479,7 +2585,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2509,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2521,10 +2627,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2536,7 +2642,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2549,10 +2655,10 @@
     </row>
     <row r="11" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2564,10 +2670,10 @@
     </row>
     <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2579,10 +2685,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2594,10 +2700,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2609,7 +2715,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2622,10 +2728,10 @@
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2637,10 +2743,10 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2652,10 +2758,10 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2667,10 +2773,10 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2682,10 +2788,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2697,10 +2803,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2712,7 +2818,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -2725,10 +2831,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2740,10 +2846,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2755,10 +2861,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2770,10 +2876,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2785,10 +2891,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2800,10 +2906,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2815,10 +2921,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2830,10 +2936,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2845,7 +2951,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -2861,10 +2967,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2876,10 +2982,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2891,10 +2997,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2906,10 +3012,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2921,10 +3027,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2936,10 +3042,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2951,10 +3057,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2966,10 +3072,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2981,10 +3087,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2996,10 +3102,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3011,10 +3117,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3026,7 +3132,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -3039,10 +3145,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3054,10 +3160,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3069,10 +3175,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3084,10 +3190,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3099,7 +3205,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -3112,10 +3218,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3127,10 +3233,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3142,10 +3248,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3157,10 +3263,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3172,10 +3278,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3187,10 +3293,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3202,10 +3308,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3217,7 +3323,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -3230,10 +3336,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3245,10 +3351,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3260,10 +3366,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3275,10 +3381,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3290,10 +3396,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3305,7 +3411,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -3318,10 +3424,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3333,10 +3439,10 @@
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3348,10 +3454,10 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3363,10 +3469,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3378,10 +3484,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3393,7 +3499,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -3406,10 +3512,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3421,10 +3527,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3436,10 +3542,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3451,10 +3557,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3466,10 +3572,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3481,10 +3587,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3496,7 +3602,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -3509,10 +3615,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3524,10 +3630,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3539,10 +3645,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3554,10 +3660,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3569,7 +3675,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -3582,10 +3688,10 @@
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3597,10 +3703,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3612,10 +3718,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3627,10 +3733,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3642,10 +3748,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3657,7 +3763,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -3670,10 +3776,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3685,10 +3791,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3700,10 +3806,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3715,10 +3821,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3730,10 +3836,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3745,10 +3851,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3760,10 +3866,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3775,10 +3881,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3790,7 +3896,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -3803,10 +3909,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3818,10 +3924,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3833,10 +3939,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3848,10 +3954,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3863,10 +3969,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3878,10 +3984,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3893,10 +3999,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3908,7 +4014,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -3921,10 +4027,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3935,10 +4041,10 @@
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/PatternsDSA.xlsx
+++ b/PatternsDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsachdeva/go/src/examples-master/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1074BD3-D8BA-BB4F-8A1C-DF61A374ABF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1388D-6482-1046-8C3B-EFCB0A4A4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="1060" windowWidth="29780" windowHeight="17660" xr2:uid="{C85E6C47-4C80-9944-B0EF-5C298FB8171A}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Pattern 11: Sliding Window - Character Frequency Matching</t>
   </si>
   <si>
-    <t>438. Find All Anagrams in a String, 567. Permutation in String</t>
-  </si>
-  <si>
     <t>III. Tree Traversal Patterns (DFS &amp; BFS)</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Pattern 17: Tree - Lowest Common Ancestor (LCA) Finding</t>
   </si>
   <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree, 236. Lowest Common Ancestor of a Binary Tree</t>
-  </si>
-  <si>
     <t>Pattern 18: Tree - Serialization and Deserialization</t>
   </si>
   <si>
@@ -775,6 +769,1195 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>300. Longest Increasing Subsequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100. Same Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>101. Symmetric Tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>127. Word Ladder, 542. 01 Matrix,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 994. Rotting Oranges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1091. Shortest Path in Binary Matrix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>322. Coin Change,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>39. Combination Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40. Combination Sum II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56. Merge Intervals,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74. Search a 2D Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>402. Remove K Digits,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>496. Next Greater Element I,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 901. Online Stock Span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>83. Remove Duplicates from Sorted List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25. Reverse Nodes in k-Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234. Palindrome Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 82. Remove Duplicates from Sorted List II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 155. Min Stack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>208. Implement Trie (Prefix Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>232. Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>271. Encode and Decode Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 460. LFU Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>70. Climbing Stairs, 91. Decode Ways,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>198. House Robber, 213. House Robber II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 337. House Robber III,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 509. Fibonacci Number, 740. Delete and Earn, 746. Min Cost Climbing Stairs</t>
+    </r>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Don't get it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23. Merge k Sorted Lists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>632. Smallest Range Covering Elements from K Lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24. Swap Nodes in Pairs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 61. Rotate List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 86. Partition List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>143. Reorder List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 328. Odd Even Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49. Group Anagrams,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>242. Valid Anagram</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28. Find the Index of the First Occurrence in a String,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 214. Shortest Palindrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>686. Repeated String Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>62. Unique Paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 63. Unique Paths II,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>64. Minimum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120. Triangle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>221. Maximal Square</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>141. Linked List Cycle, 202. Happy Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 287. Find the Duplicate Number, 392. Is Subsequence,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19. Remove Nth Node From End of List,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>876. Middle of the Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2095. Delete the Middle Node of a Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>283. Move Zeroes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>443. String Compression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5. Longest Palindromic Substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 647. Palindromic Substrings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>346. Moving Average from Data Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>643. Maximum Average Subarray I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2985. Calculate Compressed Mea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3254. Find the Power of K-Size Subarrays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I, 3318. Find X-Sum of All K-Long Subarrays I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>151. Reverse Words in a String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>344. Reverse String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 345. Reverse Vowels of a String, 541. Reverse String II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. Longest Substring Without Repeating Characters, 76. Minimum Window Substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>209. Minimum Size Subarray Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 219. Contains Duplicate II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>424. Longest Repeating Character Replacement,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 1658. Minimum Operations to Reduce X to Zero,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1838. Frequency of the Most Frequent Element,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2461. Maximum Sum of Distinct Subarrays With Length K,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>239. Sliding Window Maximum,</t>
     </r>
     <r>
@@ -784,47 +1967,45 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 862. Shortest Subarray with Sum at Least K, 1696. Jump Game VI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">297. Serialize and Deserialize Binary Tree, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>572. Subtree of Another Tree, 652. Find Duplicate Subtrees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>300. Longest Increasing Subsequence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 354. Russian Doll Envelopes, 1671. Minimum Number of Removals to Make Mountain Array, 2407. Longest Increasing Subsequence II</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>862. Shortest Subarray with Sum at Least K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1696. Jump Game VI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>438. Find All Anagrams in a String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 567. Permutation in String</t>
     </r>
   </si>
   <si>
@@ -844,18 +2025,54 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, 199. Binary Tree Right Side View, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100. Same Tree,</t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>199. Binary Tree Right Side View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 515. Find Largest Value in Each Tree Row, 1161. Maximum Level Sum of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>94. Binary Tree Inorder Traversal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
     </r>
     <r>
       <rPr>
@@ -873,7 +2090,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>101. Symmetric Tree,</t>
+      <t>230. Kth Smallest Element in a BST</t>
     </r>
     <r>
       <rPr>
@@ -882,6 +2099,114 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">235. Lowest Common Ancestor of a Binary Search Tree, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>236. Lowest Common Ancestor of a Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>297. Serialize and Deserialize Binary Tree, 572. Subtree of Another Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>652. Find Duplicate Subtrees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>104. Maximum Depth of Binary Tree, 110. Balanced Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>124. Binary Tree Maximum Path Sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>145. Binary Tree Postorder Traversal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -891,12 +2216,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
+      <t>337. House Robber III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>366. Find Leaves of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -909,26 +2252,86 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 114. Flatten Binary Tree to Linked List, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>226. Invert Binary Tree, 257. Binary Tree Paths, 988. Smallest String Starting From Leaf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>94. Binary Tree Inorder Traversal, 98. Validate Binary Search Tree, 173. Binary Search Tree Iterator,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
+      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 863. All Nodes Distance K in Binary Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1110. Delete Nodes And Return Forest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2458. Height of Binary Tree After Subtree Removal Queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130. Surrounded Regions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 200. Number of Islands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -941,39 +2344,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>230. Kth Smallest Element in a BST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 501. Find Mode in Binary Search Tree, 530. Minimum Absolute Difference in BST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>104. Maximum Depth of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 110. Balanced Binary Tree</t>
+      <t>417. Pacific Atlantic Water Flow</t>
     </r>
     <r>
       <rPr>
@@ -991,302 +2362,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>124. Binary Tree Maximum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 145. Binary Tree Postorder Traversal, 337. House Robber III, 366. Find Leaves of Binary Tree,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 543. Diameter of Binary Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 863. All Nodes Distance K in Binary Tree, 1110. Delete Nodes And Return Forest, 2458. Height of Binary Tree After Subtree Removal Queries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>130. Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 200. Number of Islands, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>417. Pacific Atlantic Water Flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 547. Number of Provinces, 695. Max Area of Island</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 733. Flood Fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 841. Keys and Rooms, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>127. Word Ladder, 542. 01 Matrix,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 994. Rotting Oranges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 1091. Shortest Path in Binary Matrix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>322. Coin Change,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 377. Combination Sum IV, 518. Coin Change II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>39. Combination Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 40. Combination Sum II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>56. Merge Intervals,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 57. Insert Interval, 759. Employee Free Time, 986. Interval List Intersections, 2406. Divide Intervals Into Minimum Number of Groups</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35. Search Insert Position, 69. Sqrt(x), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74. Search a 2D Matrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 278. First Bad Version, 374. Guess Number Higher or Lower, 540. Single Element in a Sorted Array, 704. Binary Search, 1539. Kth Missing Positive Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>402. Remove K Digits,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>496. Next Greater Element I,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 503. Next Greater Element II, 739. Daily Temperatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 901. Online Stock Span</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 907. Sum of Subarray Minimums, 962. Maximum Width Ramp, 1475. Final Prices With a Special Discount in a Shop, 1673. Find the Most Competitive Subsequence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>83. Remove Duplicates from Sorted List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 92. Reverse Linked List II, 206. Reverse Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>25. Reverse Nodes in k-Group</t>
+      <t>547. Number of Provinces</t>
     </r>
     <r>
       <rPr>
@@ -1304,749 +2380,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>234. Palindrome Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 82. Remove Duplicates from Sorted List II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>146. LRU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 155. Min Stack, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>208. Implement Trie (Prefix Tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 211. Design Add and Search Words Data Structure, 225. Implement Stack using Queues,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>232. Implement Queue using Stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 251. Flatten 2D Vector, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>271. Encode and Decode Strings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 295. Find Median from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 341. Flatten Nested List Iterator, 346. Moving Average from Data Stream, 353. Design Snake Game, 359. Logger Rate Limiter, 362. Design Hit Counter, 379. Design Phone Directory, 380. Insert Delete GetRandom O(1), 432. All O`one Data Structure,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 460. LFU Cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 604. Design Compressed String Iterator, 622. Design Circular Queue, 641. Design Circular Deque, 642. Design Search Autocomplete System, 706. Design HashMap, 715. Range Module, 900. RLE Iterator, 981. Time Based Key-Value Store, 1146. Snapshot Array, 1348. Tweet Counts Per Frequency, 1352. Product of the Last K Numbers, 1381. Design a Stack With Increment Operation, 1756. Design Most Recently Used Queue, 2013. Detect Squares, 2034. Stock Price Fluctuation, 2296. Design a Text Editor, 2336. Smallest Number in Infinite Set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>70. Climbing Stairs, 91. Decode Ways,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198. House Robber, 213. House Robber II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 337. House Robber III,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 509. Fibonacci Number, 740. Delete and Earn, 746. Min Cost Climbing Stairs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. Longest Substring Without Repeating Characters,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 76. Minimum Window Substring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 209. Minimum Size Subarray Sum, 219. Contains Duplicate II, 424. Longest Repeating Character Replacement, 713. Subarray Product Less Than K, 904. Fruit Into Baskets, 1004. Max Consecutive Ones III, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1438. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1493. Longest Subarray of 1's After Deleting One Element,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 1658. Minimum Operations to Reduce X to Zero, 1838. Frequency of the Most Frequent Element, 2461. Maximum Sum of Distinct Subarrays With Length K, 2516. Take K of Each Character From Left and Right, 2762. Continuous Subarrays, 2779. Maximum Beauty of an Array After Applying Operation, 2981. Find Longest Special Substring That Occurs Thrice I, 3026. Maximum Good Subarray Sum, 3346. Maximum Frequency of an Element After Performing Operations I, 3347. Maximum Frequency of an Element After Performing Operations II 2 </t>
-    </r>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Don't get it</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>23. Merge k Sorted Lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 373. Find K Pairs with Smallest Sums, 378. Kth Smallest Element in a Sorted Matrix, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>632. Smallest Range Covering Elements from K Lists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24. Swap Nodes in Pairs,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 61. Rotate List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 86. Partition List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>143. Reorder List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 328. Odd Even Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>49. Group Anagrams,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>242. Valid Anagram</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28. Find the Index of the First Occurrence in a String,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 214. Shortest Palindrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>686. Repeated String Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 796. Rotate String, 3008. Find Beautiful Indices in the Given Array II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>62. Unique Paths</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 63. Unique Paths II,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>64. Minimum Path Sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>120. Triangle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>221. Maximal Square</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 931. Minimum Falling Path Sum, 1277. Count Square Submatrices with All Ones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>141. Linked List Cycle, 202. Happy Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 287. Find the Duplicate Number, 392. Is Subsequence,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>19. Remove Nth Node From End of List,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>876. Middle of the Linked List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2095. Delete the Middle Node of a Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>26. Remove Duplicates from Sorted Array, 27. Remove Element, 75. Sort Colors, 80. Remove Duplicates from Sorted Array II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>283. Move Zeroes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>443. String Compression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 905. Sort Array By Parity, 2337. Move Pieces to Obtain a String, 2938. Separate Black and White Balls</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5. Longest Palindromic Substring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 647. Palindromic Substrings</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>346. Moving Average from Data Stream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>643. Maximum Average Subarray I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2985. Calculate Compressed Mea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">n, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3254. Find the Power of K-Size Subarrays </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I, 3318. Find X-Sum of All K-Long Subarrays I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>151. Reverse Words in a String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>344. Reverse String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 345. Reverse Vowels of a String, 541. Reverse String II</t>
+      <t>695. Max Area of Island, 733. Flood Fill, 841. Keys and Rooms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1020. Number of Enclaves, 1254. Number of Closed Islands, 1905. Count Sub Islands, 2101. Detonate the Maximum Bombs</t>
     </r>
   </si>
 </sst>
@@ -2497,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505050-2853-7E44-93FE-F3A92252F4CE}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2540,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2555,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2570,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2585,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2615,7 +2958,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2630,7 +2973,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2658,9 +3001,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>184</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2673,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2688,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2703,7 +3045,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2715,7 +3057,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2728,10 +3070,10 @@
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2743,10 +3085,10 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2758,10 +3100,10 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2773,10 +3115,10 @@
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2788,10 +3130,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2803,10 +3145,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2818,9 +3157,11 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2831,10 +3172,10 @@
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2846,10 +3187,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2861,10 +3202,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2876,10 +3217,10 @@
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2891,10 +3232,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2906,10 +3247,10 @@
     </row>
     <row r="28" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2921,10 +3262,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2936,10 +3277,10 @@
     </row>
     <row r="30" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2951,7 +3292,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>B4</f>
@@ -2967,10 +3308,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2982,10 +3323,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2997,10 +3338,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3012,10 +3353,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3027,10 +3368,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3042,10 +3383,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3057,10 +3398,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3072,10 +3413,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3087,10 +3428,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3102,10 +3443,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3117,10 +3458,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3132,7 +3473,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -3145,10 +3486,10 @@
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3160,10 +3501,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3175,10 +3516,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3190,10 +3531,10 @@
     </row>
     <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3205,7 +3546,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -3218,10 +3559,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3233,10 +3574,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3248,10 +3589,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3263,10 +3604,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3278,10 +3619,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3293,10 +3634,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3308,10 +3649,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3323,7 +3664,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -3336,10 +3677,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3351,10 +3692,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3366,10 +3707,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3381,10 +3722,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3396,10 +3737,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3411,7 +3752,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -3424,10 +3765,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3439,10 +3780,10 @@
     </row>
     <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3454,10 +3795,10 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3469,10 +3810,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3484,10 +3825,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3499,7 +3840,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -3512,10 +3853,10 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3527,10 +3868,10 @@
     </row>
     <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3542,10 +3883,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3557,10 +3898,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3572,10 +3913,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3587,10 +3928,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3602,7 +3943,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -3615,10 +3956,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3630,10 +3971,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3645,10 +3986,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3660,10 +4001,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3675,7 +4016,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -3688,10 +4029,10 @@
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3703,10 +4044,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3718,10 +4059,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3733,10 +4074,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3748,10 +4089,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3763,7 +4104,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -3776,10 +4117,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3791,10 +4132,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3806,10 +4147,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3821,10 +4162,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3836,10 +4177,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3851,10 +4192,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3866,10 +4207,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3881,10 +4222,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3896,7 +4237,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -3909,10 +4250,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3924,10 +4265,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3939,10 +4280,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3954,10 +4295,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3969,10 +4310,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3984,10 +4325,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3999,10 +4340,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4014,7 +4355,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -4027,10 +4368,10 @@
     </row>
     <row r="104" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4041,10 +4382,10 @@
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
